--- a/biology/Histoire de la zoologie et de la botanique/Pierre_Seyot/Pierre_Seyot.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre_Seyot/Pierre_Seyot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Seyot, né le 3 mai 1876 à Chasné-sur-Illet (Ille-et-Vilaine) et mort le 20 juillet 1942 à Nancy, est un botaniste et mycologue français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre Seyot est le fils de François Seyot et Anne-Marie Aubrée. Il effectue ses études au collège de Vitré, puis à la Faculté des sciences de Rennes. D'abord préparateur de botanique à l'université de Rennes sous la direction de Lucien Daniel, il devient professeur à l'école de pharmacie de Rennes, puis professeur de botanique à la Faculté de pharmacie de Nancy. Il est pharmacien-major de 1re classe lors de la Première Guerre mondiale.
 </t>
@@ -542,7 +556,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est chevalier de la Légion d'honneur, Croix de guerre de la première guerre mondiale, et Officier de l'Instruction publique. Il a fait partie du conseil municipal de Nancy.
 </t>
